--- a/public/reporte_minimos.xlsx
+++ b/public/reporte_minimos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Reporte de producto con stock minimo</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>ee</t>
   </si>
   <si>
     <t>Manteca</t>
@@ -490,11 +493,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <v>1</v>
+      <c r="A7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -508,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -519,7 +522,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/reporte_minimos.xlsx
+++ b/public/reporte_minimos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Reporte de producto con stock minimo</t>
   </si>
@@ -41,7 +41,10 @@
     <t>Lavandina</t>
   </si>
   <si>
-    <t>=SUMA(C5:C8)</t>
+    <t>Gaseosa</t>
+  </si>
+  <si>
+    <t>=SUMA(C5:C9)</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:D8"/>
+      <selection activeCell="A6" sqref="A6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,15 +517,29 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="D8" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" t="s">
+      <c r="A9" s="3">
+        <v>12345664</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
